--- a/app/src/main/res/raw/password.xlsx
+++ b/app/src/main/res/raw/password.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Password_Apps_Dev\PasswordSaver\app\src\main\res\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Password_Apps_Dev\password_server\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="17130" windowHeight="11235"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="17130" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="103">
   <si>
     <t>facebook</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>ihush</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udacity</t>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chase bank</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -40,6 +58,119 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>buaahuihui</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>buaa_huihui</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>buaazhanghui</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ericzhng</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zh6660780 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh6660780</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">buaa.zhanghui </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanghui2011</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>umich.zhanghui</t>
+  </si>
+  <si>
+    <t>ericzhng2014</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户1829566027</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ericzhng</t>
+  </si>
+  <si>
+    <t>buaahuihui</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>striving_huihui</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartbaby2014</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ericzhng@umich.edu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh6660780@sohu.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh6660780@sina.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>buaa.zhanghui@hotmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>buaa.zhanghui@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh6660780@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh6660780@sa.buaa.edu.cn</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanghui2011@smss.buaa.edu.cn</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>umich.zhanghui@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>815981038@qq.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh6660780@sohu.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>buaa.zhanghui@gmail.com</t>
+  </si>
+  <si>
+    <t>ericzhngbirth</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanghui2011baby</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -61,16 +192,178 @@
     <t>Hui Zhang</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>zh19890804</t>
+  </si>
+  <si>
+    <t>BUAAzhanghui2014</t>
+  </si>
+  <si>
+    <t>BUAAzhanghui2011</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
     <t>Ticket</t>
   </si>
   <si>
+    <t>12306 train</t>
+  </si>
+  <si>
+    <t>Taobao</t>
+  </si>
+  <si>
+    <t>Sciencenet</t>
+  </si>
+  <si>
+    <t>Academic forum</t>
+  </si>
+  <si>
+    <t>Sohu email</t>
+  </si>
+  <si>
+    <t>Sina email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Hotmail live</t>
+  </si>
+  <si>
+    <t>Gmail email</t>
+  </si>
+  <si>
+    <t>Shopping forum</t>
+  </si>
+  <si>
+    <t>Cragslist</t>
+  </si>
+  <si>
+    <t>BUAA email</t>
+  </si>
+  <si>
+    <t>Michigan email</t>
+  </si>
+  <si>
+    <t>1 point 3 acres forum</t>
+  </si>
+  <si>
+    <t>Ann Arbor huaren forum</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>Open course</t>
+  </si>
+  <si>
+    <t>Xiao mu chong</t>
+  </si>
+  <si>
+    <t>Couchsofa</t>
+  </si>
+  <si>
+    <t>Couchsurfing</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Sina weibo</t>
+  </si>
+  <si>
+    <t>Chinese ICBC</t>
+  </si>
+  <si>
+    <t>Chinese Bank</t>
+  </si>
+  <si>
+    <t>bhzh19890804</t>
+  </si>
+  <si>
+    <t>Bank, ID 4693801132637600</t>
+  </si>
+  <si>
+    <t>Bank, ID 4270203100294140</t>
+  </si>
+  <si>
+    <t>BUAAzh19890804</t>
+  </si>
+  <si>
+    <t>Testing, NEEA ID: 71071062</t>
+  </si>
+  <si>
+    <t>Testing, NEEA ID: 2486177</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>TOEFL</t>
+  </si>
+  <si>
+    <t>Researchgate</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Linked</t>
+  </si>
+  <si>
+    <t>Job searching</t>
+  </si>
+  <si>
+    <t>Research forum</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Chinese citizen registeration</t>
+  </si>
+  <si>
+    <t>New York embassay registeration</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>niubo.cc</t>
+  </si>
+  <si>
+    <t>News forum</t>
+  </si>
+  <si>
+    <t>Jindong</t>
+  </si>
+  <si>
+    <t>Emirates skywards</t>
+  </si>
+  <si>
+    <t>Flights</t>
+  </si>
+  <si>
+    <t>Alipay</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>ericzhang@umich.edu</t>
-  </si>
-  <si>
-    <t>zh</t>
   </si>
 </sst>
 </file>
@@ -433,7 +726,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -449,25 +742,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -475,19 +768,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -501,60 +794,986 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F32" s="10"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="4"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>599354271</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>815981038</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4270203100294140</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2486177</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="3">
+        <v>15810539745</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="3"/>
@@ -562,7 +1781,36 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="C41" r:id="rId3"/>
+    <hyperlink ref="C37" r:id="rId4"/>
+    <hyperlink ref="C36" r:id="rId5"/>
+    <hyperlink ref="C35" r:id="rId6"/>
+    <hyperlink ref="C27" r:id="rId7"/>
+    <hyperlink ref="D39" r:id="rId8"/>
+    <hyperlink ref="D41" r:id="rId9"/>
+    <hyperlink ref="D21" r:id="rId10"/>
+    <hyperlink ref="D22" r:id="rId11"/>
+    <hyperlink ref="D38" r:id="rId12"/>
+    <hyperlink ref="D20" r:id="rId13"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D37" r:id="rId15"/>
+    <hyperlink ref="D36" r:id="rId16"/>
+    <hyperlink ref="D25" r:id="rId17"/>
+    <hyperlink ref="D27" r:id="rId18"/>
+    <hyperlink ref="D35" r:id="rId19"/>
+    <hyperlink ref="D19" r:id="rId20"/>
+    <hyperlink ref="D13" r:id="rId21"/>
+    <hyperlink ref="D14" r:id="rId22"/>
+    <hyperlink ref="D12" r:id="rId23"/>
+    <hyperlink ref="D16" r:id="rId24"/>
+    <hyperlink ref="D15" r:id="rId25"/>
+    <hyperlink ref="D17" r:id="rId26"/>
+    <hyperlink ref="D18" r:id="rId27"/>
+    <hyperlink ref="D7" r:id="rId28"/>
+    <hyperlink ref="D8" r:id="rId29"/>
+    <hyperlink ref="D11" r:id="rId30"/>
+    <hyperlink ref="D3" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
